--- a/RipDist_Metadata 20-09-02.xlsx
+++ b/RipDist_Metadata 20-09-02.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\srm\smt\Local\ToolBox _Scripts\WorkArea\NSEGUIN\CE_RipDist_AddingFireInsect\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\spatialfiles.bcgov\work\srm\smt\Local\ToolBox _Scripts\WorkArea\NSEGUIN\CE_RipDist_AddingFireInsect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E30BDFAB-B3FF-4245-9A23-6A58CC2E9164}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFAE112-469A-46C4-8FD1-1CBE44202457}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t xml:space="preserve">Purpose of analysis: to establish the % of insect and fire disturbance within the riparian zone (30 metres) of streams for each watershed feature listed in the ESI 2018 Aquatics Summary. </t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>\\spatialfiles.bcgov\work\srm\bcce\shared\data_library\tile_whse\consolidated_disturbance\2019\README_How_To_merge_tiles_for_AOI.txt for more information about how to get the distrubance feature</t>
+  </si>
+  <si>
+    <t>For Burn Severity Def Quer</t>
+  </si>
+  <si>
+    <t>BURN_SEVERITY_RATING &lt;&gt; 'Unburned'</t>
   </si>
 </sst>
 </file>
@@ -229,7 +235,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -281,7 +287,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -483,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,10 +798,10 @@
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -821,9 +827,11 @@
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -846,9 +854,9 @@
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
     </row>
-    <row r="14" spans="1:23" ht="24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="3"/>
@@ -873,7 +881,10 @@
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="24" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="B15" s="6"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -898,9 +909,6 @@
       <c r="W15" s="3"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="B16" s="6"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -924,13 +932,11 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
     </row>
-    <row r="17" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>17</v>
-      </c>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="6"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -953,9 +959,12 @@
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -979,39 +988,41 @@
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
     </row>
-    <row r="19" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1035,9 +1046,33 @@
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
     </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1" xr:uid="{BE0EA093-5952-4D77-9146-DF380A48FD08}"/>
+    <hyperlink ref="B18" r:id="rId1" xr:uid="{BE0EA093-5952-4D77-9146-DF380A48FD08}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
